--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shwbhaskar\OneDrive - Deloitte (O365D)\Documents\UiPath\WI4-Performer-Canberra-Deloitte\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{F988FBC5-BEE8-48BA-841A-782CEAE71ED4}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{9ADA8DC4-5857-4028-85F6-AD0B97B8590E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{DBF2175A-7721-406F-983D-2D626A1709E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>WI4-Can-Deloitte-TrainingQueue</t>
+  </si>
+  <si>
+    <t>DownloadFilePath</t>
+  </si>
+  <si>
+    <t>Data\Temp</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -613,7 +619,14 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
